--- a/data/raw/Flying/tmp/Ca_false_RT_ID_table.xlsx
+++ b/data/raw/Flying/tmp/Ca_false_RT_ID_table.xlsx
@@ -25,6 +25,20 @@
     <author> </author>
   </authors>
   <commentList>
+    <comment ref="B210" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Fuse 210 &amp; 209</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B211" authorId="0">
       <text>
         <r>
@@ -44,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="302">
   <si>
     <t xml:space="preserve">Peak</t>
   </si>
@@ -796,10 +810,10 @@
     <t xml:space="preserve">P209</t>
   </si>
   <si>
+    <t xml:space="preserve">C31_diene_NA</t>
+  </si>
+  <si>
     <t xml:space="preserve">P210</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C31_diene_NA</t>
   </si>
   <si>
     <t xml:space="preserve">P211</t>
@@ -1031,20 +1045,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1132,12 +1138,12 @@
   <dimension ref="A1:M254"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B217" activeCellId="0" sqref="B217"/>
+      <selection pane="bottomLeft" activeCell="B214" activeCellId="0" sqref="B214"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.12"/>
   </cols>
@@ -5140,14 +5146,14 @@
       <c r="A156" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="B156" s="2"/>
+      <c r="B156" s="1"/>
       <c r="C156" s="0" t="n">
         <v>35.4095</v>
       </c>
       <c r="G156" s="0" t="n">
         <v>35.468</v>
       </c>
-      <c r="H156" s="3" t="n">
+      <c r="H156" s="0" t="n">
         <v>35.351</v>
       </c>
     </row>
@@ -5461,7 +5467,7 @@
       <c r="A166" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="B166" s="2"/>
+      <c r="B166" s="1"/>
       <c r="C166" s="0" t="n">
         <v>36.9635555555556</v>
       </c>
@@ -5474,7 +5480,7 @@
       <c r="F166" s="0" t="n">
         <v>36.964</v>
       </c>
-      <c r="G166" s="2" t="n">
+      <c r="G166" s="1" t="n">
         <v>36.964</v>
       </c>
       <c r="H166" s="0" t="n">
@@ -5766,7 +5772,7 @@
       <c r="A177" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="B177" s="2"/>
+      <c r="B177" s="1"/>
       <c r="C177" s="0" t="n">
         <v>38.4223333333333</v>
       </c>
@@ -6799,6 +6805,9 @@
       <c r="A210" s="0" t="s">
         <v>249</v>
       </c>
+      <c r="B210" s="2" t="s">
+        <v>250</v>
+      </c>
       <c r="C210" s="0" t="n">
         <v>43.6401666666667</v>
       </c>
@@ -6823,10 +6832,10 @@
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="B211" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="B211" s="4" t="s">
-        <v>251</v>
       </c>
       <c r="C211" s="0" t="n">
         <v>43.7318</v>
@@ -7011,7 +7020,7 @@
       <c r="A217" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="B217" s="4" t="s">
+      <c r="B217" s="2" t="s">
         <v>260</v>
       </c>
       <c r="C217" s="0" t="n">
@@ -7286,7 +7295,7 @@
       <c r="A227" s="0" t="s">
         <v>271</v>
       </c>
-      <c r="B227" s="4" t="s">
+      <c r="B227" s="2" t="s">
         <v>272</v>
       </c>
       <c r="C227" s="0" t="n">
@@ -7391,7 +7400,7 @@
       <c r="A230" s="0" t="s">
         <v>276</v>
       </c>
-      <c r="B230" s="4" t="s">
+      <c r="B230" s="2" t="s">
         <v>277</v>
       </c>
       <c r="C230" s="0" t="n">
